--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1373.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1373.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.23496716510313</v>
+        <v>1.250120759010315</v>
       </c>
       <c r="B1">
-        <v>2.548831346131752</v>
+        <v>2.640519857406616</v>
       </c>
       <c r="C1">
-        <v>3.633137704472308</v>
+        <v>8.353707313537598</v>
       </c>
       <c r="D1">
-        <v>3.05797905910014</v>
+        <v>2.106642246246338</v>
       </c>
       <c r="E1">
-        <v>1.115926341992764</v>
+        <v>1.13615083694458</v>
       </c>
     </row>
   </sheetData>
